--- a/prototipo/muestras_optimizacion_numpy/optimizacion_tiempos_numpy.xlsx
+++ b/prototipo/muestras_optimizacion_numpy/optimizacion_tiempos_numpy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\tesis_ger\prototipo\optimizacion_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\tesis_ger\prototipo\muestras_optimizacion_numpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64967D-0246-402C-A241-41D0EE62601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57EA074-42E2-4088-B0AB-90B3C3035FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D17ADDD0-CD59-446A-A1BF-7F6EB0ABB40A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D17ADDD0-CD59-446A-A1BF-7F6EB0ABB40A}"/>
   </bookViews>
   <sheets>
     <sheet name="desfases marcadores" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
   <si>
     <t>Cantidad de marcadores</t>
   </si>
@@ -57,11 +57,29 @@
   <si>
     <t>Media de tiempo utilizando ciclos for</t>
   </si>
+  <si>
+    <t>Milisegundos</t>
+  </si>
+  <si>
+    <t>Microsegundos</t>
+  </si>
+  <si>
+    <t>Media de tiempo (us)</t>
+  </si>
+  <si>
+    <t>Desviación estándar (us)</t>
+  </si>
+  <si>
+    <t>Tiempo reducido (us)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,10 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,7 +240,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'desfases marcadores'!$A$1</c:f>
+              <c:f>'desfases marcadores'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -454,7 +474,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'desfases marcadores'!$A$10</c:f>
+              <c:f>'desfases marcadores'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1051,6 +1071,887 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-419"/>
+              <a:t>Comparación de tiempos al</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" baseline="0"/>
+              <a:t> aplicar el desfase de los marcadores</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'desfases marcadores'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media de tiempo utilizando ciclos for</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Lineal</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6619131217673249E-2"/>
+                  <c:y val="-1.7290845725200978E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'desfases marcadores'!$D$4:$D$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.0800000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.6900000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6540000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.43E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'desfases marcadores'!$D$4:$D$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.0800000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.6900000000000002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6540000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.43E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'desfases marcadores'!$A$24:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'desfases marcadores'!$C$24:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1869999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.484999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E20-41BD-8D2F-05E23681D975}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'desfases marcadores'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media de tiempo utilizando Numpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Lineal</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.2119482744473096E-2"/>
+                  <c:y val="-8.307822214913245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'desfases marcadores'!$D$13:$D$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.1900000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.13E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2499999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.47E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'desfases marcadores'!$D$13:$D$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.1900000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.13E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2499999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.47E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'desfases marcadores'!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'desfases marcadores'!$C$33:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E20-41BD-8D2F-05E23681D975}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2127396432"/>
+        <c:axId val="2133547120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2127396432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Cantidad de marcadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133547120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2133547120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" baseline="0"/>
+                  <a:t> (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-419"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2127396432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
               <a:t>Comparación de tiempos al calcular las</a:t>
             </a:r>
             <a:r>
@@ -1101,7 +2002,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'distancia entre agentes'!$A$1</c:f>
+              <c:f>'distancia entre agentes'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1407,7 +2308,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'distancia entre agentes'!$A$16</c:f>
+              <c:f>'distancia entre agentes'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2042,7 +2943,1033 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Comparación de tiempos al calcular las</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" baseline="0"/>
+              <a:t> distancias entre agentes</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'distancia entre agentes'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media de tiempo utilizando ciclos for</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Exponencial</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0039229504597049E-2"/>
+                  <c:y val="-8.1201573677585848E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'distancia entre agentes'!$D$4:$D$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.4299999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1850000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.1399999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2669999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.9670000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.0600000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.9649999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2055E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.1439999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.4560000000000009E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'distancia entre agentes'!$D$4:$D$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.4299999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1850000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.1399999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2669999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.9670000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.0600000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.9649999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2055E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.1439999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.4560000000000009E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'distancia entre agentes'!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'distancia entre agentes'!$C$33:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8829999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.256999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.752000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.319000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9F4-451E-92C7-2911619C15A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'distancia entre agentes'!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media de tiempo utilizando Numpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Exponencial</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0424435948852658E-2"/>
+                  <c:y val="-9.8039228088373884E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'distancia entre agentes'!$D$19:$D$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.477E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.457E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.0049999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.5989999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.58E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6949999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7260000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.1580000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.898E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.5140000000000002E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'distancia entre agentes'!$D$19:$D$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.477E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.457E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.0049999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.5989999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.58E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6949999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7260000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.1580000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.898E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.5140000000000002E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'distancia entre agentes'!$A$48:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'distancia entre agentes'!$C$48:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1869999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.354000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3439999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5589999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.613999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E9F4-451E-92C7-2911619C15A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2127396432"/>
+        <c:axId val="2133547120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2127396432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Cantidad de agentes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133547120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2133547120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" baseline="0"/>
+                  <a:t> (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-419"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2127396432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2127,7 +4054,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'error de formacion'!$A$1</c:f>
+              <c:f>'error de formacion'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2433,7 +4360,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'error de formacion'!$A$16</c:f>
+              <c:f>'error de formacion'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3068,6 +4995,1032 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Comparación de tiempos al</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" baseline="0"/>
+              <a:t> calcular el error cuadrático medio de la formación</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'error de formacion'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media de tiempo utilizando ciclos for</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Exponencial</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8176236788330134E-2"/>
+                  <c:y val="-7.7475474538427971E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'error de formacion'!$D$4:$D$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>8.0900000000000004E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9499999999999996E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.0850000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.1399999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.761E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.2920000000000008E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0952E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.6479999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1905000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.3256E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'error de formacion'!$D$4:$D$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>8.0900000000000004E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9499999999999996E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.0850000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.1399999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.761E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.2920000000000008E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0952E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.6479999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1905000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.3256E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'error de formacion'!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'error de formacion'!$C$34:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.070999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.558999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.147000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103.55399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.03200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149.833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3BF-4892-92AD-E14AE55551F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'error de formacion'!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media de tiempo utilizando Numpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Exponencial</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.116978889597053E-2"/>
+                  <c:y val="-0.14426853720090321"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'error de formacion'!$D$19:$D$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>7.9159999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3890000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.186E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4229999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5010000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5300000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.5890000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.1459999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.7299999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.4888E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'error de formacion'!$D$19:$D$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>7.9159999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3890000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.186E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4229999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5010000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5300000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.5890000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.1459999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.7299999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.4888E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'error de formacion'!$A$49:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'error de formacion'!$C$49:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.228999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.081000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.065000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.142999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.454999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3BF-4892-92AD-E14AE55551F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2127396432"/>
+        <c:axId val="2133547120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2127396432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Cantidad de agentes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133547120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2133547120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" baseline="0"/>
+                  <a:t> (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-419"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2127396432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3188,6 +6141,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4221,6 +7294,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4774,6 +9395,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>431744</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>155433</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75BD90D-5ED3-411F-896F-69D1D3C16E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4817,6 +9476,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>531135</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>14629</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA40B03-68D4-4621-B68E-6EEDA1A0ABE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4855,6 +9552,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604631</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>406896</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>6346</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F17B11A-3FFF-4053-B93B-E6E52E054429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5180,10 +9915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD797051-2436-4494-B1A8-991EACB05596}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5196,6 +9931,11 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5269,8 +10009,8 @@
         <v>8.43E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5342,6 +10082,235 @@
       </c>
       <c r="D16" s="2">
         <v>1.47E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="3">
+        <f>C4*1000</f>
+        <v>2.8019999999999996</v>
+      </c>
+      <c r="D24" s="3">
+        <f>D4*1000</f>
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:D27" si="0">C5*1000</f>
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46900000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6540000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>10.484999999999999</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="3">
+        <f>C13*1000</f>
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="D33" s="3">
+        <f>D13*1000</f>
+        <v>0.11900000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" ref="C34:D34" si="1">C14*1000</f>
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11299999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" ref="C35:D35" si="2">C15*1000</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" ref="C36:D36" si="3">C16*1000</f>
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <f>C24-C33</f>
+        <v>2.0679999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" ref="B40:B42" si="4">C25-C34</f>
+        <v>4.5969999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="4"/>
+        <v>7.3929999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="4"/>
+        <v>9.6479999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -5352,10 +10321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC7D7E-E5A6-40DC-835A-57D0574FBB48}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5368,6 +10337,11 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5525,8 +10499,8 @@
         <v>9.4560000000000009E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5682,6 +10656,481 @@
       </c>
       <c r="D28" s="2">
         <v>2.5140000000000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="3">
+        <f>C4*1000</f>
+        <v>2.13</v>
+      </c>
+      <c r="D33" s="3">
+        <f>D4*1000</f>
+        <v>0.34299999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" ref="C34:D42" si="0">C5*1000</f>
+        <v>5.569</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1850000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>9.8829999999999991</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>16.405999999999999</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2669999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>26.256999999999998</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>5.9670000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>36.697000000000003</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0600000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>51.341999999999999</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9649999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>62.752000000000002</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>12.055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>79.695999999999998</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1440000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>98.319000000000003</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>9.4560000000000013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C48" s="3">
+        <f>C19*1000</f>
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="D48" s="3">
+        <f>D19*1000</f>
+        <v>1.4770000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" ref="C49:D57" si="1">C20*1000</f>
+        <v>8.1340000000000003</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4569999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="1"/>
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="1"/>
+        <v>7.0049999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="1"/>
+        <v>8.354000000000001</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5990000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="1"/>
+        <v>8.918000000000001</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="1"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8350000000000009</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6949999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="1"/>
+        <v>9.3439999999999994</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7260000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="1"/>
+        <v>9.5589999999999993</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1580000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>9</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="1"/>
+        <v>9.5809999999999995</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8980000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="1"/>
+        <v>9.613999999999999</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5140000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3">
+        <f>C33-C48</f>
+        <v>-3.9700000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" ref="B62:B70" si="2">C34-C49</f>
+        <v>-2.5650000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6959999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0519999999999978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="2"/>
+        <v>17.338999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>6</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="2"/>
+        <v>27.862000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="2"/>
+        <v>41.997999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="2"/>
+        <v>53.193000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>9</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="2"/>
+        <v>70.114999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>10</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="2"/>
+        <v>88.704999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5692,22 +11141,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1315053-8711-498D-81C0-5042B8A0D1BC}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5865,8 +11319,8 @@
         <v>1.3256E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6022,6 +11476,481 @@
       </c>
       <c r="D28" s="2">
         <v>2.4888E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="3">
+        <f>C4*1000</f>
+        <v>5.665</v>
+      </c>
+      <c r="D34" s="3">
+        <f>D4*1000</f>
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" ref="C35:D35" si="0">C5*1000</f>
+        <v>11.010000000000002</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" ref="C36:D36" si="1">C6*1000</f>
+        <v>18.721</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0850000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" ref="C37:D37" si="2">C7*1000</f>
+        <v>29.093</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="2"/>
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" ref="C38:D38" si="3">C8*1000</f>
+        <v>43.070999999999998</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="3"/>
+        <v>3.7610000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" ref="C39:D39" si="4">C9*1000</f>
+        <v>58.558999999999997</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="4"/>
+        <v>8.2920000000000016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" ref="C40:D40" si="5">C10*1000</f>
+        <v>75.147000000000006</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="5"/>
+        <v>10.952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:D41" si="6">C11*1000</f>
+        <v>103.55399999999999</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="6"/>
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42:D42" si="7">C12*1000</f>
+        <v>128.03200000000001</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="7"/>
+        <v>11.905000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:D43" si="8">C13*1000</f>
+        <v>149.833</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="8"/>
+        <v>13.256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="3">
+        <f>C19*1000</f>
+        <v>16.538</v>
+      </c>
+      <c r="D49" s="3">
+        <f>D19*1000</f>
+        <v>7.9159999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" ref="C50:D58" si="9">C20*1000</f>
+        <v>20.228999999999999</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="9"/>
+        <v>2.3890000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="9"/>
+        <v>20.081000000000003</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1859999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="9"/>
+        <v>20.134</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="9"/>
+        <v>3.423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="9"/>
+        <v>20.713999999999999</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5010000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="9"/>
+        <v>21.065000000000001</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="9"/>
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="9"/>
+        <v>21.142999999999997</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="9"/>
+        <v>5.5890000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="9"/>
+        <v>22.082000000000001</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1459999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="9"/>
+        <v>22.347999999999999</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="9"/>
+        <v>4.7299999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>10</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="9"/>
+        <v>22.454999999999998</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="9"/>
+        <v>24.888000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3">
+        <f>C34-C49</f>
+        <v>-10.873000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" ref="B64:B72" si="10">C35-C50</f>
+        <v>-9.2189999999999976</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.360000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="10"/>
+        <v>8.9589999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="10"/>
+        <v>22.356999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>6</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="10"/>
+        <v>37.494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="10"/>
+        <v>54.004000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="10"/>
+        <v>81.47199999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>9</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" si="10"/>
+        <v>105.68400000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>10</v>
+      </c>
+      <c r="B72" s="3">
+        <f t="shared" si="10"/>
+        <v>127.378</v>
       </c>
     </row>
   </sheetData>
